--- a/src/tests/testcases/test_case.xlsx
+++ b/src/tests/testcases/test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\Desktop\QA\AutoTest\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\Desktop\QA\AutoTest\src\tests\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE2DAD9-1323-46A7-BE0B-E992AB78987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDA612B-FD8A-44F5-9864-AB9B3EA37694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1185" windowWidth="21150" windowHeight="14295" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="상품목록" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>TC_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,9 @@
   <si>
     <t>밥</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_012</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DBF7D3-7E0D-4C7A-AFA7-80EDC24819A5}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -651,6 +654,12 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/tests/testcases/test_case.xlsx
+++ b/src/tests/testcases/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\Desktop\QA\AutoTest\src\tests\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDA612B-FD8A-44F5-9864-AB9B3EA37694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D58EC2F-81CA-4204-8A13-476BAEF9EA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>TC_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,13 @@
   </si>
   <si>
     <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>ㅁㄴㅇㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -546,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DBF7D3-7E0D-4C7A-AFA7-80EDC24819A5}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,6 +667,14 @@
         <v>24</v>
       </c>
       <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/tests/testcases/test_case.xlsx
+++ b/src/tests/testcases/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\Desktop\QA\AutoTest\src\tests\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D58EC2F-81CA-4204-8A13-476BAEF9EA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A6B5E-B55C-4919-9226-6FB8E195B8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>TC_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,16 +123,6 @@
   </si>
   <si>
     <t>밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_012</t>
-  </si>
-  <si>
-    <t>TC_013</t>
-  </si>
-  <si>
-    <t>ㅁㄴㅇㄹ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DBF7D3-7E0D-4C7A-AFA7-80EDC24819A5}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,20 +650,6 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/tests/testcases/test_case.xlsx
+++ b/src/tests/testcases/test_case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\Desktop\QA\AutoTest\src\tests\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\OneDrive\Desktop\QATEST\src\tests\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A6B5E-B55C-4919-9226-6FB8E195B8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B01B2-A4DE-45BF-892A-F561D4FA3548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
+    <workbookView xWindow="3684" yWindow="2796" windowWidth="25752" windowHeight="14784" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="상품목록" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>TC_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이폰16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,17 +550,17 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -572,7 +576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -580,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -588,15 +592,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -604,7 +608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -612,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -620,7 +624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -628,7 +632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,7 +640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -644,7 +648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -666,12 +670,12 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,7 +691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -695,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -703,7 +707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -719,7 +723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -727,7 +731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -735,7 +739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -743,7 +747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -751,7 +755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>

--- a/src/tests/testcases/test_case.xlsx
+++ b/src/tests/testcases/test_case.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\OneDrive\Desktop\QATEST\src\tests\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B01B2-A4DE-45BF-892A-F561D4FA3548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971DE8A6-D368-4DD4-8E8D-842309D36B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2796" windowWidth="25752" windowHeight="14784" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
+    <workbookView xWindow="2616" yWindow="2268" windowWidth="25752" windowHeight="14784" activeTab="1" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="상품목록" sheetId="2" r:id="rId1"/>
-    <sheet name="카테고리" sheetId="3" r:id="rId2"/>
+    <sheet name="영화목록" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TC_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iPhone16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>헤드셋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,30 @@
   </si>
   <si>
     <t>아이폰16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"The Godfather"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Fight Club"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"The Matrix"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Interstellar"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DBF7D3-7E0D-4C7A-AFA7-80EDC24819A5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -605,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -613,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -621,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -629,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -637,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -645,15 +665,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -664,103 +684,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4FB5E9-590C-4D34-8171-1F113CA552E7}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>550</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>603</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>157336</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
